--- a/biology/Médecine/Sillon_infra-orbitaire/Sillon_infra-orbitaire.xlsx
+++ b/biology/Médecine/Sillon_infra-orbitaire/Sillon_infra-orbitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon infra-orbitaire est une gouttière osseuse située au milieu de la partie postérieure de la surface orbitaire de l'os maxillaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sillon infra-orbitaire débute au milieu du bord postérieur de la face orbitaire du corps du maxillaire[1]. Il passe en avant, en bas et en dedans pour se continuer par le canal infra-orbitaire.
-Le sillon infra-orbitaire a une longueur moyenne de 16,7 mm, avec une petite variation entre les personnes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon infra-orbitaire débute au milieu du bord postérieur de la face orbitaire du corps du maxillaire. Il passe en avant, en bas et en dedans pour se continuer par le canal infra-orbitaire.
+Le sillon infra-orbitaire a une longueur moyenne de 16,7 mm, avec une petite variation entre les personnes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il permet le passage de l'artère infra-orbitaire, de la veine infra-orbitaire et du nerf infra-orbitaire.
 </t>
@@ -574,9 +590,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sillon sous-orbitaire est un repère chirurgical important pour l'anesthésie locale du nerf infra-orbitaire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon sous-orbitaire est un repère chirurgical important pour l'anesthésie locale du nerf infra-orbitaire.
 </t>
         </is>
       </c>
